--- a/src/main/resources/excel/studentListByClassroom.xlsx
+++ b/src/main/resources/excel/studentListByClassroom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lms-platform-backend\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C5593DC-B63E-41F7-9D48-7C7EE32A7FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD8A4DB-7EEC-4F29-A4F7-52F672925B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4856B4E8-8820-40DE-A7E0-F4C13E70EAD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4856B4E8-8820-40DE-A7E0-F4C13E70EAD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Student List" sheetId="1" r:id="rId1"/>
@@ -499,7 +499,7 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/excel/studentListByClassroom.xlsx
+++ b/src/main/resources/excel/studentListByClassroom.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lms-platform-backend\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\lms-platform-backend-master\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD8A4DB-7EEC-4F29-A4F7-52F672925B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DC9329-2B64-4BF8-9AB1-7AE6023CA700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4856B4E8-8820-40DE-A7E0-F4C13E70EAD1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4856B4E8-8820-40DE-A7E0-F4C13E70EAD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Student List" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -102,7 +100,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +116,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,19 +153,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,19 +501,19 @@
   <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="40.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="53" style="4" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -521,201 +523,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
+    <row r="2" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="122" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
